--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-03_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-03_beg.xlsx
@@ -268,11 +268,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  The scouting is more or less complete. Our observation spot is stealthy enough, and there’s nobody around the warehouse.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch'en"]  Looks like it’s an abandoned construction site with piles of construction materials left behind. There are traces of things being dragged around.
+    <t xml:space="preserve">[name="Hoshiguma"]  The scouting is more or less complete. Our observation spot is stealthy enough, and there's nobody around the warehouse.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Looks like it's an abandoned construction site with piles of construction materials left behind. There are traces of things being dragged around.
 </t>
   </si>
   <si>
@@ -312,7 +312,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch'en"]  Looks like it’s about to rain. Let's get started and chase the enemies out of their ambush spots.
+    <t xml:space="preserve">[name="Ch'en"]  Looks like it's about to rain. Let's get started and chase the enemies out of their ambush spots.
 </t>
   </si>
   <si>
@@ -320,11 +320,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  We’re too late. He's going to bleed out.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  I’ll draw Reunion’s fire. The rest of you should seize the opportunity to surround them and end this battle quickly.
+    <t xml:space="preserve">[name="Hoshiguma"]  We're too late. He's going to bleed out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  I'll draw Reunion's fire. The rest of you should seize the opportunity to surround them and end this battle quickly.
 </t>
   </si>
   <si>
@@ -352,15 +352,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  That’s more like it. I’m going to flush them out of their ambush spots. Give me three minutes.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch'en"]  Doing all that by yourself in three minutes? That’s way too reckless!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch'en"]  If you show any signs of needing help, we’re going to attack.
+    <t xml:space="preserve">[name="Hoshiguma"]  That's more like it. I'm going to flush them out of their ambush spots. Give me three minutes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Doing all that by yourself in three minutes? That's way too reckless!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  If you show any signs of needing help, we're going to attack.
 </t>
   </si>
   <si>
@@ -368,7 +368,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch'en"]  …It’s all I’m going to need.
+    <t xml:space="preserve">[name="Ch'en"]  ...It's all I'm going to need.
 </t>
   </si>
   <si>
